--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-16.14018903381625</v>
+        <v>8.189548673647696</v>
       </c>
       <c r="C3">
-        <v>-6.791910405777589</v>
+        <v>-8.974959151229303</v>
       </c>
       <c r="D3">
-        <v>-3.960768829455048</v>
+        <v>-1.01725560823065</v>
       </c>
       <c r="E3">
-        <v>-5.976670854937382</v>
+        <v>0.6812891314769711</v>
       </c>
       <c r="F3">
-        <v>-2.989026990346052</v>
+        <v>-2.226143026305237</v>
       </c>
       <c r="G3">
-        <v>-2.889230364707919</v>
+        <v>0.06705817846833073</v>
       </c>
       <c r="H3">
-        <v>-2.610106546763337</v>
+        <v>-0.3695255935427733</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,25 +544,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-5.111729259208365</v>
+        <v>-16.14018903381625</v>
       </c>
       <c r="C4">
-        <v>3.455275933053657</v>
+        <v>-6.791910405777589</v>
       </c>
       <c r="D4">
-        <v>-3.728614538712288</v>
+        <v>-3.960768829455048</v>
       </c>
       <c r="E4">
-        <v>0.9923340248431218</v>
+        <v>-5.976670854937382</v>
       </c>
       <c r="F4">
-        <v>-0.9110484627979438</v>
+        <v>-2.989026990346052</v>
       </c>
       <c r="G4">
-        <v>-0.1981003006930162</v>
+        <v>-2.889230364707919</v>
       </c>
       <c r="H4">
-        <v>-0.1744636854283967</v>
+        <v>-2.610106546763337</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -567,25 +570,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.2719305936643379</v>
+        <v>-5.111729259208365</v>
       </c>
       <c r="C5">
-        <v>-1.865743883948665</v>
+        <v>3.455275933053657</v>
       </c>
       <c r="D5">
-        <v>0.2314251006721421</v>
+        <v>-3.728614538712288</v>
       </c>
       <c r="E5">
-        <v>-0.3608174671756919</v>
+        <v>0.9923340248431218</v>
       </c>
       <c r="F5">
-        <v>-0.4453535416162557</v>
+        <v>-0.9110484627979438</v>
       </c>
       <c r="G5">
-        <v>0.08612045519262451</v>
+        <v>-0.1981003006930162</v>
       </c>
       <c r="H5">
-        <v>-0.06432879815791362</v>
+        <v>-0.1744636854283967</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -593,25 +596,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-1.457511430326895</v>
+        <v>-0.2719305936643379</v>
       </c>
       <c r="C6">
-        <v>0.4830481445585361</v>
+        <v>-1.865743883948665</v>
       </c>
       <c r="D6">
-        <v>-0.4427235209988271</v>
+        <v>0.2314251006721421</v>
       </c>
       <c r="E6">
-        <v>-0.3702614922349701</v>
+        <v>-0.3608174671756919</v>
       </c>
       <c r="F6">
-        <v>0.1920276157063483</v>
+        <v>-0.4453535416162557</v>
       </c>
       <c r="G6">
-        <v>-0.005912151999258208</v>
+        <v>0.08612045519262451</v>
       </c>
       <c r="H6">
-        <v>0.6464597483751605</v>
+        <v>-0.06432879815791362</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -619,25 +622,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.377548932709721</v>
+        <v>-1.457511430326895</v>
       </c>
       <c r="C7">
-        <v>-0.568828804964185</v>
+        <v>0.4830481445585361</v>
       </c>
       <c r="D7">
-        <v>-0.2020134236017385</v>
+        <v>-0.4427235209988271</v>
       </c>
       <c r="E7">
-        <v>0.2526917083102306</v>
+        <v>-0.3702614922349701</v>
       </c>
       <c r="F7">
-        <v>0.005220687375374677</v>
+        <v>0.1920276157063483</v>
       </c>
       <c r="G7">
-        <v>0.709322499702091</v>
+        <v>-0.005912151999258208</v>
       </c>
       <c r="H7">
-        <v>0.8372749959213646</v>
+        <v>0.6464597483751605</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -645,25 +648,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-1.173269424811924</v>
+        <v>0.377548932709721</v>
       </c>
       <c r="C8">
-        <v>-0.2662168009564319</v>
+        <v>-0.568828804964185</v>
       </c>
       <c r="D8">
-        <v>0.5442390163674474</v>
+        <v>-0.2020134236017385</v>
       </c>
       <c r="E8">
-        <v>-0.03248618871055892</v>
+        <v>0.2526917083102306</v>
       </c>
       <c r="F8">
-        <v>0.70073847962863</v>
+        <v>0.005220687375374677</v>
       </c>
       <c r="G8">
-        <v>0.9210160735187328</v>
+        <v>0.709322499702091</v>
       </c>
       <c r="H8">
-        <v>0.4568818931967809</v>
+        <v>0.8372749959213646</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -671,25 +674,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.3538576297953431</v>
+        <v>-1.173269424811924</v>
       </c>
       <c r="C9">
-        <v>0.4918198143377789</v>
+        <v>-0.2662168009564319</v>
       </c>
       <c r="D9">
-        <v>0.02616020827444671</v>
+        <v>0.5442390163674474</v>
       </c>
       <c r="E9">
-        <v>0.7056676249657313</v>
+        <v>-0.03248618871055892</v>
       </c>
       <c r="F9">
-        <v>0.9099227904698376</v>
+        <v>0.70073847962863</v>
       </c>
       <c r="G9">
-        <v>0.4696485924218674</v>
+        <v>0.9210160735187328</v>
       </c>
       <c r="H9">
-        <v>0.3872693173527261</v>
+        <v>0.4568818931967809</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -697,25 +700,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5142477939707875</v>
+        <v>-0.3538576297953431</v>
       </c>
       <c r="C10">
-        <v>0.02876374783689539</v>
+        <v>0.4918198143377789</v>
       </c>
       <c r="D10">
-        <v>0.683599939311716</v>
+        <v>0.02616020827444671</v>
       </c>
       <c r="E10">
-        <v>0.9039408101654827</v>
+        <v>0.7056676249657313</v>
       </c>
       <c r="F10">
-        <v>0.4643053422394562</v>
+        <v>0.9099227904698376</v>
       </c>
       <c r="G10">
-        <v>0.3769007839823598</v>
+        <v>0.4696485924218674</v>
       </c>
       <c r="H10">
-        <v>0.6700434640770384</v>
+        <v>0.3872693173527261</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -723,25 +726,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.05018831929411549</v>
+        <v>0.5142477939707875</v>
       </c>
       <c r="C11">
-        <v>0.8037777881109285</v>
+        <v>0.02876374783689539</v>
       </c>
       <c r="D11">
-        <v>0.8147464657516995</v>
+        <v>0.683599939311716</v>
       </c>
       <c r="E11">
-        <v>0.4345783383908784</v>
+        <v>0.9039408101654827</v>
       </c>
       <c r="F11">
-        <v>0.3855269040122699</v>
+        <v>0.4643053422394562</v>
       </c>
       <c r="G11">
-        <v>0.6441032906516032</v>
+        <v>0.3769007839823598</v>
       </c>
       <c r="H11">
-        <v>0.4725811863294772</v>
+        <v>0.6700434640770384</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -749,25 +752,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.761457155790539</v>
+        <v>0.05018831929411549</v>
       </c>
       <c r="C12">
-        <v>0.7855419918959663</v>
+        <v>0.8037777881109285</v>
       </c>
       <c r="D12">
-        <v>0.4315577385859573</v>
+        <v>0.8147464657516995</v>
       </c>
       <c r="E12">
-        <v>0.3666656204007895</v>
+        <v>0.4345783383908784</v>
       </c>
       <c r="F12">
-        <v>0.623772159586399</v>
+        <v>0.3855269040122699</v>
       </c>
       <c r="G12">
-        <v>0.4580510308952294</v>
+        <v>0.6441032906516032</v>
       </c>
       <c r="H12">
-        <v>0.6147108416195859</v>
+        <v>0.4725811863294772</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -775,25 +778,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.125739732513876</v>
+        <v>0.761457155790539</v>
       </c>
       <c r="C13">
-        <v>0.5069288003698943</v>
+        <v>0.7855419918959663</v>
       </c>
       <c r="D13">
-        <v>0.1755723340877904</v>
+        <v>0.4315577385859573</v>
       </c>
       <c r="E13">
-        <v>0.6484660721731321</v>
+        <v>0.3666656204007895</v>
       </c>
       <c r="F13">
-        <v>0.4674304344515254</v>
+        <v>0.623772159586399</v>
       </c>
       <c r="G13">
-        <v>0.5599000430081948</v>
+        <v>0.4580510308952294</v>
       </c>
       <c r="H13">
-        <v>0.3149780871614969</v>
+        <v>0.6147108416195859</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -801,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.9576236723601449</v>
+        <v>1.125739732513876</v>
       </c>
       <c r="C14">
-        <v>0.2226830363001488</v>
+        <v>0.5069288003698943</v>
       </c>
       <c r="D14">
-        <v>0.4081828413823239</v>
+        <v>0.1755723340877904</v>
       </c>
       <c r="E14">
-        <v>0.5033755155173882</v>
+        <v>0.6484660721731321</v>
       </c>
       <c r="F14">
-        <v>0.557849285568602</v>
+        <v>0.4674304344515254</v>
       </c>
       <c r="G14">
-        <v>0.2384098477254667</v>
+        <v>0.5599000430081948</v>
       </c>
       <c r="H14">
-        <v>0.1291161168902814</v>
+        <v>0.3149780871614969</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,25 +830,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5350086232236873</v>
+        <v>0.9576236723601449</v>
       </c>
       <c r="C15">
-        <v>0.5414715811178482</v>
+        <v>0.2226830363001488</v>
       </c>
       <c r="D15">
-        <v>0.3242970937011966</v>
+        <v>0.4081828413823239</v>
       </c>
       <c r="E15">
-        <v>0.5860435243391693</v>
+        <v>0.5033755155173882</v>
       </c>
       <c r="F15">
-        <v>0.2744351589178602</v>
+        <v>0.557849285568602</v>
       </c>
       <c r="G15">
-        <v>0.09157454668606776</v>
+        <v>0.2384098477254667</v>
       </c>
       <c r="H15">
-        <v>-0.01239555844019874</v>
+        <v>0.1291161168902814</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,117 +856,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7770620722256893</v>
+        <v>0.5350086232236873</v>
       </c>
       <c r="C16">
-        <v>0.4089758345755062</v>
+        <v>0.5414715811178482</v>
       </c>
       <c r="D16">
-        <v>0.4404431577054521</v>
+        <v>0.3242970937011966</v>
       </c>
       <c r="E16">
-        <v>0.2843889017771028</v>
+        <v>0.5860435243391693</v>
       </c>
       <c r="F16">
-        <v>0.1069397163856127</v>
+        <v>0.2744351589178602</v>
       </c>
       <c r="G16">
-        <v>-0.05124389339762181</v>
+        <v>0.09157454668606776</v>
       </c>
       <c r="H16">
-        <v>0.5520662240532093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.01239555844019874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.720000021056889</v>
+        <v>0.7770620722256893</v>
       </c>
       <c r="C17">
-        <v>0.5575319321166473</v>
+        <v>0.4089758345755062</v>
       </c>
       <c r="D17">
-        <v>0.121924760327536</v>
+        <v>0.4404431577054521</v>
       </c>
       <c r="E17">
-        <v>0.1358986668508143</v>
+        <v>0.2843889017771028</v>
       </c>
       <c r="F17">
-        <v>-0.01550102094271821</v>
+        <v>0.1069397163856127</v>
       </c>
       <c r="G17">
-        <v>0.5207385776695821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-0.05124389339762181</v>
+      </c>
+      <c r="H17">
+        <v>0.5520662240532093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8043571095207618</v>
+        <v>0.720000021056889</v>
       </c>
       <c r="C18">
-        <v>0.1395806278654255</v>
+        <v>0.5575319321166473</v>
       </c>
       <c r="D18">
-        <v>0.04127642773981979</v>
+        <v>0.121924760327536</v>
       </c>
       <c r="E18">
-        <v>0.01671636730576187</v>
+        <v>0.1358986668508143</v>
       </c>
       <c r="F18">
-        <v>0.5331267034972994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.01550102094271821</v>
+      </c>
+      <c r="G18">
+        <v>0.5207385776695821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3792569872816374</v>
+        <v>0.8043571095207618</v>
       </c>
       <c r="C19">
-        <v>0.1263006712090333</v>
+        <v>0.1395806278654255</v>
       </c>
       <c r="D19">
-        <v>-0.09976821105225223</v>
+        <v>0.04127642773981979</v>
       </c>
       <c r="E19">
-        <v>0.5482319751491519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01671636730576187</v>
+      </c>
+      <c r="F19">
+        <v>0.5331267034972994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2911607482431205</v>
+        <v>0.3792569872816374</v>
       </c>
       <c r="C20">
-        <v>-0.08623093880433602</v>
+        <v>0.1263006712090333</v>
       </c>
       <c r="D20">
-        <v>0.4852590561591889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.09976821105225223</v>
+      </c>
+      <c r="E20">
+        <v>0.5482319751491519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.167618103061072</v>
+        <v>0.2911607482431205</v>
       </c>
       <c r="C21">
-        <v>0.5845771063412253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.08623093880433602</v>
+      </c>
+      <c r="D21">
+        <v>0.4852590561591889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>0.167618103061072</v>
+      </c>
+      <c r="C22">
+        <v>0.5845771063412253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.6286367975806744</v>
       </c>
     </row>
